--- a/OnBoard/output/trust/catch/Catch_Trust_66.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_66.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="G35">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>12</v>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G36">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G37">
-        <v>0.872</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>87</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="G38">
-        <v>4.264</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1001</v>
+        <v>-1</v>
       </c>
       <c r="I38">
         <v>86.25736842105263</v>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="G39">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>11</v>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G40">
-        <v>1.724</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>678</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G41">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="G42">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="G43">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>119</v>
@@ -2159,19 +2159,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Eggs of Murex</t>
+          <t>Goneplax rhomboides</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EGGSMUR</t>
+          <t>GONERHO</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>86.25736842105263</v>
@@ -2200,19 +2200,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Goneplax rhomboides</t>
+          <t>Modiolus barbatus</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>GONERHO</t>
+          <t>MODIBAR</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I45">
         <v>86.25736842105263</v>
@@ -2241,19 +2241,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Modiolus barbatus</t>
+          <t>Musculus subpictus</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MODIBAR</t>
+          <t>MUSCSUB</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I46">
         <v>86.25736842105263</v>
@@ -2282,19 +2282,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Musculus subpictus</t>
+          <t>Ophiura ophiura</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MUSCSUB</t>
+          <t>OPHIOPH</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>86.25736842105263</v>
@@ -2323,16 +2323,16 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Parthenope massena</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>PARTMAS</t>
         </is>
       </c>
       <c r="G48">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -2364,19 +2364,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Parthenope massena</t>
+          <t>Polinices sp.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>PARTMAS</t>
+          <t>POLISPP</t>
         </is>
       </c>
       <c r="G49">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I49">
         <v>86.25736842105263</v>
@@ -2405,103 +2405,21 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Polinices sp.</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>POLISPP</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G50">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>4</v>
       </c>
       <c r="I50">
-        <v>86.25736842105263</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Shells NA</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>SHELLS</t>
-        </is>
-      </c>
-      <c r="G51">
-        <v>1.276</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>86.25736842105263</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Turritella communis</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>TURRCOM</t>
-        </is>
-      </c>
-      <c r="G52">
-        <v>0.001</v>
-      </c>
-      <c r="H52">
-        <v>4</v>
-      </c>
-      <c r="I52">
         <v>86.25736842105263</v>
       </c>
     </row>

--- a/OnBoard/output/trust/catch/Catch_Trust_66.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_66.xlsx
@@ -572,7 +572,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="H5">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1228,7 +1228,7 @@
         <v>11.3</v>
       </c>
       <c r="H21">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="I21">
         <v>1</v>
